--- a/Документация/WebTours Профиль нагрузки.xlsx
+++ b/Документация/WebTours Профиль нагрузки.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazar\OneDrive\Документы\Тестирование\Домашняя работа\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454FD77A-DD38-42B8-A9FB-AC761C77627D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0543F485-AD7C-43CD-8569-C445AA110FD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="3150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Профиль1" sheetId="1" r:id="rId1"/>
+    <sheet name="Соответствие профилю" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>N</t>
   </si>
@@ -80,9 +81,6 @@
     <t xml:space="preserve">Удаление бронирования </t>
   </si>
   <si>
-    <t>Поиск билета без бронирования</t>
-  </si>
-  <si>
     <t>Покупка билета (без просмотра квитанции)</t>
   </si>
   <si>
@@ -117,18 +115,68 @@
   </si>
   <si>
     <t>Интенсивность рассчет</t>
+  </si>
+  <si>
+    <t>Поиск билета без оплаты</t>
+  </si>
+  <si>
+    <t>Наименование операции</t>
+  </si>
+  <si>
+    <t>Наименование транзакции</t>
+  </si>
+  <si>
+    <t>По профилю</t>
+  </si>
+  <si>
+    <t>По факту</t>
+  </si>
+  <si>
+    <t>% отклонения</t>
+  </si>
+  <si>
+    <t>payment_details</t>
+  </si>
+  <si>
+    <t>Просмотр квитанции</t>
+  </si>
+  <si>
+    <t>Cancel_reservation</t>
+  </si>
+  <si>
+    <t>Check_ticket</t>
+  </si>
+  <si>
+    <t>fing_flight</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>select_ticket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,8 +225,41 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +281,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -279,87 +366,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="4" xr:uid="{D0B2F1B7-AACC-435D-9754-3ABECF1F1E3C}"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -639,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F6:T42"/>
+  <dimension ref="F6:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView topLeftCell="H32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,21 +930,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="6:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="6:20" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="6:18" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="15"/>
       <c r="G21" s="1"/>
       <c r="H21" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>7</v>
@@ -818,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>10</v>
@@ -828,7 +963,7 @@
       </c>
       <c r="R21" s="18"/>
     </row>
-    <row r="22" spans="6:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="15"/>
       <c r="G22" s="6" t="s">
         <v>0</v>
@@ -873,7 +1008,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="23" spans="6:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F23" s="15"/>
       <c r="G23" s="6">
         <v>1</v>
@@ -882,29 +1017,24 @@
         <v>14</v>
       </c>
       <c r="I23" s="6">
-        <f>$T23</f>
         <v>42</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" ref="J23:M23" si="0">$T23</f>
         <v>42</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="20">
-        <f t="shared" ref="P23:P28" si="1">SUM(I23:O23)</f>
+        <f t="shared" ref="P23:P28" si="0">SUM(I23:O23)</f>
         <v>210</v>
       </c>
       <c r="Q23" s="19">
@@ -912,13 +1042,10 @@
         <v>5.0355450236966828</v>
       </c>
       <c r="R23" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="T23">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="6:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="6:18" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" s="15"/>
       <c r="G24" s="6">
         <v>2</v>
@@ -942,164 +1069,140 @@
         <v>73</v>
       </c>
       <c r="P24" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="6:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:18" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F25" s="15"/>
       <c r="G25" s="6">
         <v>3</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I25" s="6">
-        <f>$T25</f>
         <v>76</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" ref="J25:L26" si="2">$T25</f>
         <v>76</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6">
-        <f>T25</f>
         <v>76</v>
       </c>
       <c r="P25" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>304</v>
       </c>
-      <c r="T25">
-        <f>251-T26-T23</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="6:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="6:18" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F26" s="15"/>
       <c r="G26" s="6">
         <v>4</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26" s="6">
-        <f>$T26</f>
         <v>133</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6">
-        <f t="shared" ref="O26" si="3">T26</f>
         <v>133</v>
       </c>
       <c r="P26" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>665</v>
       </c>
-      <c r="T26">
-        <f>175-T23</f>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="6:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="6:18" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F27" s="15"/>
       <c r="G27" s="6">
         <v>5</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="6">
-        <f>T27</f>
         <v>44</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6">
-        <f>T27</f>
         <v>44</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6">
-        <f>T27</f>
         <v>44</v>
       </c>
       <c r="P27" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="T27">
-        <f>159-73-T23</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="6:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="6:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F28" s="15"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" s="21">
         <f>SUM(I23:I27)</f>
         <v>368</v>
       </c>
       <c r="J28" s="21">
-        <f t="shared" ref="J28:N28" si="4">SUM(J23:J27)</f>
+        <f t="shared" ref="J28:O28" si="1">SUM(J23:J27)</f>
         <v>251</v>
       </c>
       <c r="K28" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>251</v>
       </c>
       <c r="L28" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
       <c r="M28" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>159</v>
       </c>
       <c r="N28" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="O28" s="21">
-        <f>SUM(O23:O27)</f>
+        <f t="shared" si="1"/>
         <v>326</v>
       </c>
       <c r="P28" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1603</v>
       </c>
     </row>
-    <row r="29" spans="6:20" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="6:20" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G30" s="9"/>
       <c r="H30" s="12"/>
       <c r="I30" s="9"/>
@@ -1123,16 +1226,16 @@
         <v>13</v>
       </c>
       <c r="I37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="L37" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="M37" s="23"/>
     </row>
@@ -1175,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="22">
-        <f t="shared" ref="L39:L42" si="5">(3600*K39)/I39</f>
+        <f t="shared" ref="L39:L42" si="2">(3600*K39)/I39</f>
         <v>73.469387755102048</v>
       </c>
       <c r="M39" s="23"/>
@@ -1185,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I40" s="14">
         <v>47</v>
@@ -1197,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>76.59574468085107</v>
       </c>
       <c r="M40" s="23"/>
@@ -1207,7 +1310,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="14">
         <v>27</v>
@@ -1219,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>133.33333333333334</v>
       </c>
       <c r="M41" s="23"/>
@@ -1229,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42" s="14">
         <v>82</v>
@@ -1241,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>43.902439024390247</v>
       </c>
       <c r="M42" s="23"/>
@@ -1253,4 +1356,178 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D48B1FB-7751-441D-9516-C0058F4407BB}">
+  <dimension ref="C11:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="E11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="28">
+        <v>368</v>
+      </c>
+      <c r="H12" s="27">
+        <f>119*3</f>
+        <v>357</v>
+      </c>
+      <c r="I12" s="29">
+        <f>1-G12/H12</f>
+        <v>-3.0812324929971879E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E13" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="28">
+        <v>251</v>
+      </c>
+      <c r="H13" s="27">
+        <f>79*3</f>
+        <v>237</v>
+      </c>
+      <c r="I13" s="29">
+        <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
+        <v>-5.9071729957805852E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E14" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="28">
+        <v>251</v>
+      </c>
+      <c r="H14" s="27">
+        <f>79*3</f>
+        <v>237</v>
+      </c>
+      <c r="I14" s="29">
+        <f t="shared" si="0"/>
+        <v>-5.9071729957805852E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="28">
+        <v>175</v>
+      </c>
+      <c r="H15" s="27">
+        <f>53*3</f>
+        <v>159</v>
+      </c>
+      <c r="I15" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.10062893081761004</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E16" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="28">
+        <v>159</v>
+      </c>
+      <c r="H16" s="28">
+        <f>53*3</f>
+        <v>159</v>
+      </c>
+      <c r="I16" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E17" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="28">
+        <v>73</v>
+      </c>
+      <c r="H17" s="27">
+        <f>25*3</f>
+        <v>75</v>
+      </c>
+      <c r="I17" s="29">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666616E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="28">
+        <v>326</v>
+      </c>
+      <c r="H18" s="27">
+        <f>104*3</f>
+        <v>312</v>
+      </c>
+      <c r="I18" s="29">
+        <f t="shared" si="0"/>
+        <v>-4.4871794871794934E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Документация/WebTours Профиль нагрузки.xlsx
+++ b/Документация/WebTours Профиль нагрузки.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazar\OneDrive\Документы\Тестирование\Домашняя работа\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0543F485-AD7C-43CD-8569-C445AA110FD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC7779E-A865-45FF-9FDC-1D8BB269BEB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Профиль1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
   <si>
     <t>N</t>
   </si>
@@ -157,18 +157,56 @@
   </si>
   <si>
     <t>select_ticket</t>
+  </si>
+  <si>
+    <t>Transaction Name</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Поиск максимума 3 ступень</t>
+  </si>
+  <si>
+    <t>Подтверждение максимума</t>
+  </si>
+  <si>
+    <t>Профиль для 5 пользаков</t>
+  </si>
+  <si>
+    <t>1 315,</t>
+  </si>
+  <si>
+    <t>1 970,</t>
+  </si>
+  <si>
+    <t>1 675,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,13 +291,115 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +427,172 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -394,109 +698,317 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
+  <cellStyles count="44">
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="9" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="4" xr:uid="{D0B2F1B7-AACC-435D-9754-3ABECF1F1E3C}"/>
-    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
+    <cellStyle name="Обычный 3" xfId="42" xr:uid="{38AB8912-B8DB-4975-BF95-24BAE8E9314A}"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание 2" xfId="43" xr:uid="{5DB8A108-6C29-4BDB-BF02-7C9BE96B190C}"/>
+    <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F6:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="H32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="H22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,12 +1311,12 @@
   <sheetData>
     <row r="6" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="7:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="7:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
@@ -1247,7 +1759,7 @@
         <v>14</v>
       </c>
       <c r="I38" s="14">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="J38" s="14">
         <v>42</v>
@@ -1257,7 +1769,7 @@
       </c>
       <c r="L38" s="22">
         <f>(3600*K38)/I38</f>
-        <v>42.352941176470587</v>
+        <v>51.428571428571431</v>
       </c>
       <c r="M38" s="23"/>
     </row>
@@ -1360,10 +1872,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D48B1FB-7751-441D-9516-C0058F4407BB}">
-  <dimension ref="C11:I18"/>
+  <dimension ref="C9:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,159 +1887,602 @@
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" customWidth="1"/>
+    <col min="12" max="12" width="40.28515625" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+    </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>368</v>
       </c>
-      <c r="H12" s="27">
-        <f>119*3</f>
-        <v>357</v>
-      </c>
-      <c r="I12" s="29">
+      <c r="H12" s="26">
+        <f>121*3</f>
+        <v>363</v>
+      </c>
+      <c r="I12" s="28">
         <f>1-G12/H12</f>
-        <v>-3.0812324929971879E-2</v>
+        <v>-1.377410468319562E-2</v>
       </c>
     </row>
     <row r="13" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>251</v>
       </c>
-      <c r="H13" s="27">
-        <f>79*3</f>
-        <v>237</v>
-      </c>
-      <c r="I13" s="29">
+      <c r="H13" s="26">
+        <f>82*3</f>
+        <v>246</v>
+      </c>
+      <c r="I13" s="28">
         <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
-        <v>-5.9071729957805852E-2</v>
+        <v>-2.0325203252032464E-2</v>
       </c>
     </row>
     <row r="14" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="27">
         <v>251</v>
       </c>
-      <c r="H14" s="27">
-        <f>79*3</f>
-        <v>237</v>
-      </c>
-      <c r="I14" s="29">
+      <c r="H14" s="26">
+        <f>82*3</f>
+        <v>246</v>
+      </c>
+      <c r="I14" s="28">
         <f t="shared" si="0"/>
-        <v>-5.9071729957805852E-2</v>
+        <v>-2.0325203252032464E-2</v>
       </c>
     </row>
     <row r="15" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <v>175</v>
       </c>
-      <c r="H15" s="27">
-        <f>53*3</f>
+      <c r="H15" s="26">
+        <f>56*3</f>
+        <v>168</v>
+      </c>
+      <c r="I15" s="29">
+        <f t="shared" si="0"/>
+        <v>-4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="27">
         <v>159</v>
       </c>
-      <c r="I15" s="30">
+      <c r="H16" s="27">
+        <f>56*3</f>
+        <v>168</v>
+      </c>
+      <c r="I16" s="28">
         <f t="shared" si="0"/>
-        <v>-0.10062893081761004</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E16" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="28">
-        <v>159</v>
-      </c>
-      <c r="H16" s="28">
-        <f>53*3</f>
-        <v>159</v>
-      </c>
-      <c r="I16" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.3571428571428603E-2</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <v>73</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="26">
         <f>25*3</f>
         <v>75</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <f t="shared" si="0"/>
         <v>2.6666666666666616E-2</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <v>326</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="26">
         <f>104*3</f>
         <v>312</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="28">
         <f t="shared" si="0"/>
         <v>-4.4871794871794934E-2</v>
       </c>
     </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="34">
+        <f>5*368</f>
+        <v>1840</v>
+      </c>
+      <c r="H26" s="33">
+        <f>721*3</f>
+        <v>2163</v>
+      </c>
+      <c r="I26" s="35">
+        <f>1-G26/H26</f>
+        <v>0.14932963476652794</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="34">
+        <f>5*251</f>
+        <v>1255</v>
+      </c>
+      <c r="H27" s="33">
+        <f>3*464</f>
+        <v>1392</v>
+      </c>
+      <c r="I27" s="35">
+        <f t="shared" ref="I27:I32" si="1">1-G27/H27</f>
+        <v>9.8419540229885083E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="34">
+        <f>5*251</f>
+        <v>1255</v>
+      </c>
+      <c r="H28" s="33">
+        <f>3*462</f>
+        <v>1386</v>
+      </c>
+      <c r="I28" s="35">
+        <f t="shared" si="1"/>
+        <v>9.4516594516594554E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="34">
+        <f>5*175</f>
+        <v>875</v>
+      </c>
+      <c r="H29" s="33">
+        <f>3*314</f>
+        <v>942</v>
+      </c>
+      <c r="I29" s="31">
+        <f t="shared" si="1"/>
+        <v>7.1125265392781301E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="34">
+        <f>5*159</f>
+        <v>795</v>
+      </c>
+      <c r="H30" s="33">
+        <f>3*330</f>
+        <v>990</v>
+      </c>
+      <c r="I30" s="35">
+        <f t="shared" si="1"/>
+        <v>0.19696969696969702</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="34">
+        <f>5*73</f>
+        <v>365</v>
+      </c>
+      <c r="H31" s="33">
+        <f>3*141</f>
+        <v>423</v>
+      </c>
+      <c r="I31" s="35">
+        <f t="shared" si="1"/>
+        <v>0.13711583924349879</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="34">
+        <f>5*326</f>
+        <v>1630</v>
+      </c>
+      <c r="H32" s="33">
+        <f>3*599</f>
+        <v>1797</v>
+      </c>
+      <c r="I32" s="35">
+        <f t="shared" si="1"/>
+        <v>9.2932665553700611E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E35" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E37" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="O37" s="39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E38" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="34">
+        <f>5*368</f>
+        <v>1840</v>
+      </c>
+      <c r="H38" s="33">
+        <v>2109</v>
+      </c>
+      <c r="I38" s="35">
+        <f>1-G38/H38</f>
+        <v>0.12754860123281175</v>
+      </c>
+      <c r="L38" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="39">
+        <v>377</v>
+      </c>
+      <c r="N38" s="39">
+        <v>27</v>
+      </c>
+      <c r="O38" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="34">
+        <f>5*251</f>
+        <v>1255</v>
+      </c>
+      <c r="H39" s="39">
+        <v>1315</v>
+      </c>
+      <c r="I39" s="35">
+        <f t="shared" ref="I39:I44" si="2">1-G39/H39</f>
+        <v>4.5627376425855459E-2</v>
+      </c>
+      <c r="L39" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" s="39">
+        <v>998</v>
+      </c>
+      <c r="N39" s="39">
+        <v>1</v>
+      </c>
+      <c r="O39" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="34">
+        <f>5*251</f>
+        <v>1255</v>
+      </c>
+      <c r="H40" s="33">
+        <v>1315</v>
+      </c>
+      <c r="I40" s="35">
+        <f t="shared" si="2"/>
+        <v>4.5627376425855459E-2</v>
+      </c>
+      <c r="L40" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="N40" s="39">
+        <v>0</v>
+      </c>
+      <c r="O40" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E41" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="34">
+        <f>5*175</f>
+        <v>875</v>
+      </c>
+      <c r="H41" s="39">
+        <v>924</v>
+      </c>
+      <c r="I41" s="31">
+        <f t="shared" si="2"/>
+        <v>5.3030303030302983E-2</v>
+      </c>
+      <c r="L41" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" s="39">
+        <v>139</v>
+      </c>
+      <c r="O41" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="34">
+        <f>5*159</f>
+        <v>795</v>
+      </c>
+      <c r="H42" s="39">
+        <v>998</v>
+      </c>
+      <c r="I42" s="35">
+        <f t="shared" si="2"/>
+        <v>0.20340681362725455</v>
+      </c>
+      <c r="L42" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="N42" s="39">
+        <v>1</v>
+      </c>
+      <c r="O42" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="34">
+        <f>5*73</f>
+        <v>365</v>
+      </c>
+      <c r="H43" s="39">
+        <v>404</v>
+      </c>
+      <c r="I43" s="35">
+        <f t="shared" si="2"/>
+        <v>9.6534653465346509E-2</v>
+      </c>
+      <c r="L43" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="39">
+        <v>924</v>
+      </c>
+      <c r="N43" s="39">
+        <v>0</v>
+      </c>
+      <c r="O43" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="34">
+        <f>5*326</f>
+        <v>1630</v>
+      </c>
+      <c r="H44" s="33">
+        <v>1675</v>
+      </c>
+      <c r="I44" s="35">
+        <f t="shared" si="2"/>
+        <v>2.68656716417911E-2</v>
+      </c>
+      <c r="L44" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="N44" s="39">
+        <v>0</v>
+      </c>
+      <c r="O44" s="39">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E9:I9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>